--- a/Carat/templates/DefaultByWorkType.xlsx
+++ b/Carat/templates/DefaultByWorkType.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Звіт для виду роботи</t>
+  </si>
+  <si>
+    <t>Форма навчання</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -253,9 +256,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -272,6 +272,9 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,6 +313,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,13 +617,14 @@
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,26 +633,28 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
@@ -644,10 +662,11 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="21" t="s">
         <v>13</v>
@@ -655,19 +674,21 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,8 +698,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
@@ -688,62 +710,69 @@
       <c r="C7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17">
-        <f>SUM(G9:G9)</f>
+      <c r="C10" s="14"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16">
+        <f>SUM(H9:H9)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F7:F8"/>
+  <mergeCells count="10">
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
